--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/185.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/185.xlsx
@@ -479,13 +479,13 @@
         <v>-5.149346409129085</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.64551090319333</v>
+        <v>-14.69475105418106</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1127405336091953</v>
+        <v>-0.07153905656628332</v>
       </c>
       <c r="G2" t="n">
-        <v>-11.10431792286611</v>
+        <v>-11.16996272931452</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-5.05706285875216</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.80480495186861</v>
+        <v>-14.84918785850206</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.04968800312344251</v>
+        <v>-0.002883020464271815</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.81526606072648</v>
+        <v>-10.87652494572291</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-4.925149130780307</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.16193678878522</v>
+        <v>-15.2105354169337</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.008185403115170872</v>
+        <v>0.03487518093126617</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.44457059806585</v>
+        <v>-10.51122351183307</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.754154127215647</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.66664506333376</v>
+        <v>-15.72002238201947</v>
       </c>
       <c r="F5" t="n">
-        <v>0.112787475142378</v>
+        <v>0.162158549158527</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.25513806824891</v>
+        <v>-10.32465819633848</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.535563332393448</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.14755153131604</v>
+        <v>-16.20464706400881</v>
       </c>
       <c r="F6" t="n">
-        <v>0.106621000503925</v>
+        <v>0.1536485523114051</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.0934481281536</v>
+        <v>-10.16588783977687</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-4.273929380870438</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.70893638486641</v>
+        <v>-16.77497396040008</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2265464945341358</v>
+        <v>0.2878708410447807</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.946447751846696</v>
+        <v>-10.01828521753925</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.970131012835301</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.28692227842009</v>
+        <v>-17.36057957420764</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3830387904012875</v>
+        <v>0.438026462336537</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.741330643225373</v>
+        <v>-9.812866985952564</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.641108174496061</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.0036342128847</v>
+        <v>-18.08707145889502</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6531329980260963</v>
+        <v>0.7153214365242951</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.776784599320766</v>
+        <v>-9.849564710817923</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.299134639150415</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.48041660547184</v>
+        <v>-18.56952281861263</v>
       </c>
       <c r="F10" t="n">
-        <v>0.703237241001382</v>
+        <v>0.7577143131258042</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.433766264867545</v>
+        <v>-9.503561331316787</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-2.963970316195457</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.07716376899771</v>
+        <v>-19.17322199494746</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8287793329506932</v>
+        <v>0.8832302204694319</v>
       </c>
       <c r="G11" t="n">
-        <v>-9.38359656037805</v>
+        <v>-9.456141010424055</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-2.652652058493463</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.62156790576237</v>
+        <v>-19.71998274622362</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9796026616873775</v>
+        <v>1.041162669649174</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.891090312077999</v>
+        <v>-8.96460359253429</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-2.374163797928631</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.42920588346276</v>
+        <v>-20.53241250676409</v>
       </c>
       <c r="F13" t="n">
-        <v>1.159543271944061</v>
+        <v>1.225620124386252</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.389484913302947</v>
+        <v>-8.472188990354132</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.138897863667067</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.26044928318679</v>
+        <v>-21.36431052163021</v>
       </c>
       <c r="F14" t="n">
-        <v>1.472279109924371</v>
+        <v>1.545884036500555</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.921251794471456</v>
+        <v>-8.015228344269367</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-1.941158735395621</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.08117956372892</v>
+        <v>-22.18761998583215</v>
       </c>
       <c r="F15" t="n">
-        <v>1.582044976949402</v>
+        <v>1.658661133179183</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.470169592362627</v>
+        <v>-7.574043923108881</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.777438176657858</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.94163189109284</v>
+        <v>-23.04519200657089</v>
       </c>
       <c r="F16" t="n">
-        <v>1.857114259654067</v>
+        <v>1.936794014748812</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.899580849914521</v>
+        <v>-6.995966383435309</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.63806812893065</v>
       </c>
       <c r="E17" t="n">
-        <v>-23.55737598604206</v>
+        <v>-23.65847474858587</v>
       </c>
       <c r="F17" t="n">
-        <v>2.046298035717009</v>
+        <v>2.127208467278876</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.809597452483338</v>
+        <v>-6.909269154017399</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-1.518533144015489</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.36655885547778</v>
+        <v>-24.47059029385813</v>
       </c>
       <c r="F18" t="n">
-        <v>2.452997331192388</v>
+        <v>2.542601051841161</v>
       </c>
       <c r="G18" t="n">
-        <v>-6.408842062498104</v>
+        <v>-6.508238825672487</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-1.422356157014932</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.21170628081972</v>
+        <v>-25.32050331743446</v>
       </c>
       <c r="F19" t="n">
-        <v>2.716781048847484</v>
+        <v>2.80769399978043</v>
       </c>
       <c r="G19" t="n">
-        <v>-6.110769603700525</v>
+        <v>-6.205492414760414</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-1.353594740435572</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.96469698645875</v>
+        <v>-26.07363803840476</v>
       </c>
       <c r="F20" t="n">
-        <v>2.938826505043159</v>
+        <v>3.029529979130637</v>
       </c>
       <c r="G20" t="n">
-        <v>-5.985620280836466</v>
+        <v>-6.091890503002757</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-1.326486226842939</v>
       </c>
       <c r="E21" t="n">
-        <v>-26.54824710872017</v>
+        <v>-26.65763329896279</v>
       </c>
       <c r="F21" t="n">
-        <v>3.260242539807534</v>
+        <v>3.347463461339113</v>
       </c>
       <c r="G21" t="n">
-        <v>-5.662973569604969</v>
+        <v>-5.762187040539569</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-1.34669276015914</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.13364324568227</v>
+        <v>-27.24393280482097</v>
       </c>
       <c r="F22" t="n">
-        <v>3.474851567989107</v>
+        <v>3.554348030844068</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.50263213670235</v>
+        <v>-5.615003371992885</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-1.423379259950698</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.58624415492074</v>
+        <v>-27.69157173128242</v>
       </c>
       <c r="F23" t="n">
-        <v>3.658903161338092</v>
+        <v>3.73709039390888</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.30846019325671</v>
+        <v>-5.416550245518001</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-1.556835343409265</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.81428588581792</v>
+        <v>-27.92090960016094</v>
       </c>
       <c r="F24" t="n">
-        <v>3.793858619030605</v>
+        <v>3.872909943588946</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.144361269438516</v>
+        <v>-5.254022398040814</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.742892642456589</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.08534892385302</v>
+        <v>-28.1885424548515</v>
       </c>
       <c r="F25" t="n">
-        <v>4.108230994866131</v>
+        <v>4.188067857594977</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.854903545910794</v>
+        <v>-4.960911922020251</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-1.977411677402769</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.04607201532784</v>
+        <v>-28.14850619276151</v>
       </c>
       <c r="F26" t="n">
-        <v>4.260599215338138</v>
+        <v>4.347951059898135</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.854288207677233</v>
+        <v>-4.964355197667625</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-2.247322473016581</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.94187037701054</v>
+        <v>-28.04083509419115</v>
       </c>
       <c r="F27" t="n">
-        <v>4.219489384415119</v>
+        <v>4.301447200204324</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.682752855844939</v>
+        <v>-4.781036773277776</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-2.546661518420388</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.88703981270939</v>
+        <v>-27.98923832869191</v>
       </c>
       <c r="F28" t="n">
-        <v>4.207680127251882</v>
+        <v>4.281861115153102</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.606948422391344</v>
+        <v>-4.69756025035893</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-2.861075250996059</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.68078367374084</v>
+        <v>-27.77661933054228</v>
       </c>
       <c r="F29" t="n">
-        <v>4.198279853811523</v>
+        <v>4.27039225786375</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.492063464955198</v>
+        <v>-4.57847266371059</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.185275489563298</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.53822158809729</v>
+        <v>-27.63126858439344</v>
       </c>
       <c r="F30" t="n">
-        <v>4.108388102500232</v>
+        <v>4.174032908948647</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.446279681917682</v>
+        <v>-4.532139003953722</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-3.513086213689142</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.09784888971299</v>
+        <v>-27.18716457969924</v>
       </c>
       <c r="F31" t="n">
-        <v>3.967384000894842</v>
+        <v>4.029362962547573</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.547666475124009</v>
+        <v>-4.624570662016308</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-3.838111691778626</v>
       </c>
       <c r="E32" t="n">
-        <v>-26.72627624276196</v>
+        <v>-26.8115071342616</v>
       </c>
       <c r="F32" t="n">
-        <v>3.88545236971132</v>
+        <v>3.943922594202469</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.628812568137027</v>
+        <v>-4.704813386133247</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.162458963796794</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.30666793668464</v>
+        <v>-26.39183336667007</v>
       </c>
       <c r="F33" t="n">
-        <v>3.753560510883772</v>
+        <v>3.810878612724848</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.5881085986021</v>
+        <v>-4.644484054638573</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.479184577505785</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.82350959261358</v>
+        <v>-25.90588636209372</v>
       </c>
       <c r="F34" t="n">
-        <v>3.629262187704424</v>
+        <v>3.682076537367947</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.419047692006892</v>
+        <v>-4.466350182174049</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-4.793121177848955</v>
       </c>
       <c r="E35" t="n">
-        <v>-25.4221126797891</v>
+        <v>-25.49975003564054</v>
       </c>
       <c r="F35" t="n">
-        <v>3.388416184628032</v>
+        <v>3.44256594918141</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.435164316805056</v>
+        <v>-4.474009179336458</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.100970281374596</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.73250181220687</v>
+        <v>-24.81063667556629</v>
       </c>
       <c r="F36" t="n">
-        <v>3.18171490736286</v>
+        <v>3.227040459800916</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.709709907396053</v>
+        <v>-4.744299771503893</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.401300962040926</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.25905795684437</v>
+        <v>-24.33276762184328</v>
       </c>
       <c r="F37" t="n">
-        <v>3.04859237206819</v>
+        <v>3.096169800595022</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.712799690866699</v>
+        <v>-4.739756742417813</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.695885002717687</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.84850952433352</v>
+        <v>-23.91846169841686</v>
       </c>
       <c r="F38" t="n">
-        <v>2.977396429214883</v>
+        <v>3.023559889034809</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.852677854427701</v>
+        <v>-4.883038904717663</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.976178774258533</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.35143406234171</v>
+        <v>-23.41927837566753</v>
       </c>
       <c r="F39" t="n">
-        <v>2.947886378609633</v>
+        <v>2.995123407262581</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.730696868851339</v>
+        <v>-4.755388952010835</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.244707484388819</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.97099792636683</v>
+        <v>-23.03666891742093</v>
       </c>
       <c r="F40" t="n">
-        <v>3.025680842095169</v>
+        <v>3.082632359456678</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.724399471184469</v>
+        <v>-4.742911987402669</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.4917130789862</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.44226527610373</v>
+        <v>-22.50656157535944</v>
       </c>
       <c r="F41" t="n">
-        <v>3.050189633014881</v>
+        <v>3.100987768040778</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.652771482337386</v>
+        <v>-4.670995967893068</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.716485827877552</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.77268563186933</v>
+        <v>-21.83166645617131</v>
       </c>
       <c r="F42" t="n">
-        <v>3.148748488807394</v>
+        <v>3.196797240236529</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.678380026695802</v>
+        <v>-4.6980839424726</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.918289052743079</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.11093518473428</v>
+        <v>-21.16886862480892</v>
       </c>
       <c r="F43" t="n">
-        <v>3.26613407608631</v>
+        <v>3.314863627263215</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.71621678190839</v>
+        <v>-4.740424449862742</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.091468800703653</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.8257586442358</v>
+        <v>-20.88044519320569</v>
       </c>
       <c r="F44" t="n">
-        <v>3.177944324144443</v>
+        <v>3.222719999863147</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.771309192266373</v>
+        <v>-4.792584184384179</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.243940365974567</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.34495691467626</v>
+        <v>-20.39527063449701</v>
       </c>
       <c r="F45" t="n">
-        <v>3.29912667924746</v>
+        <v>3.3484322917494</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.723338994654289</v>
+        <v>-4.741380187970187</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.369935594767763</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.01431080640847</v>
+        <v>-20.066876402318</v>
       </c>
       <c r="F46" t="n">
-        <v>3.328793837486811</v>
+        <v>3.376894958127313</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.713388844494578</v>
+        <v>-4.71977788828134</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.47849451728064</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.47801080510284</v>
+        <v>-19.52494671079043</v>
       </c>
       <c r="F47" t="n">
-        <v>3.339372418182926</v>
+        <v>3.38522166273465</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.988340296473667</v>
+        <v>-4.99094566473917</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-7.571939354005909</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.00519538027675</v>
+        <v>-19.05040310198923</v>
       </c>
       <c r="F48" t="n">
-        <v>3.273125365803792</v>
+        <v>3.315675350039402</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.104940345582079</v>
+        <v>-5.10653760652877</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-7.650598532656559</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.60879972713781</v>
+        <v>-18.66158789219564</v>
       </c>
       <c r="F49" t="n">
-        <v>3.29328751218005</v>
+        <v>3.334947219822423</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.389213517184477</v>
+        <v>-5.394070761538758</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-7.725159597799149</v>
       </c>
       <c r="E50" t="n">
-        <v>-18.09734891662578</v>
+        <v>-18.14766263644653</v>
       </c>
       <c r="F50" t="n">
-        <v>3.424420017442778</v>
+        <v>3.474223137452704</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.324982679442969</v>
+        <v>-5.313880406633185</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.790067970753095</v>
       </c>
       <c r="E51" t="n">
-        <v>-17.42966765630343</v>
+        <v>-17.48228562142433</v>
       </c>
       <c r="F51" t="n">
-        <v>3.437067181987886</v>
+        <v>3.490483777582128</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.538308661946053</v>
+        <v>-5.52682671235386</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.855213894633975</v>
       </c>
       <c r="E52" t="n">
-        <v>-17.03929446247168</v>
+        <v>-17.09041990506863</v>
       </c>
       <c r="F52" t="n">
-        <v>3.271816135519619</v>
+        <v>3.320467132879473</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.813260113925143</v>
+        <v>-5.815250143957085</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.915934012638438</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.64550417759825</v>
+        <v>-16.69969321906015</v>
       </c>
       <c r="F53" t="n">
-        <v>3.310255136662927</v>
+        <v>3.35579016594645</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.846632393868703</v>
+        <v>-5.8460039633323</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.973525125455958</v>
       </c>
       <c r="E54" t="n">
-        <v>-16.43986337686326</v>
+        <v>-16.50124009258527</v>
       </c>
       <c r="F54" t="n">
-        <v>3.047728280080636</v>
+        <v>3.09122091012085</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.029950818258551</v>
+        <v>-6.024072374282616</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.032648001065132</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.14435700942266</v>
+        <v>-16.21005418508244</v>
       </c>
       <c r="F55" t="n">
-        <v>2.89879024295316</v>
+        <v>2.943592103277547</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.180459931727033</v>
+        <v>-6.168048428633077</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.085906910265436</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.80649704228908</v>
+        <v>-15.87927715378623</v>
       </c>
       <c r="F56" t="n">
-        <v>2.844954693667983</v>
+        <v>2.889861292415103</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.478113436833675</v>
+        <v>-6.476071037590367</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.143923482687233</v>
       </c>
       <c r="E57" t="n">
-        <v>-15.26057419839478</v>
+        <v>-15.33275206396122</v>
       </c>
       <c r="F57" t="n">
-        <v>2.872605637269708</v>
+        <v>2.924896294819562</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.736660233352082</v>
+        <v>-6.733740649818377</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-8.198997869705627</v>
       </c>
       <c r="E58" t="n">
-        <v>-15.05325758289605</v>
+        <v>-15.12983446221731</v>
       </c>
       <c r="F58" t="n">
-        <v>2.71219874285288</v>
+        <v>2.766322322800576</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.710410166154421</v>
+        <v>-6.709244951201508</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-8.259924094611408</v>
       </c>
       <c r="E59" t="n">
-        <v>-14.70534272718002</v>
+        <v>-14.78478682082361</v>
       </c>
       <c r="F59" t="n">
-        <v>2.829872360794314</v>
+        <v>2.890934861248124</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.823396739678517</v>
+        <v>-6.819743987185676</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.329198262707658</v>
       </c>
       <c r="E60" t="n">
-        <v>-14.64350778085855</v>
+        <v>-14.72820188794167</v>
       </c>
       <c r="F60" t="n">
-        <v>2.648831997098926</v>
+        <v>2.709868312947053</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.823409831981359</v>
+        <v>-6.823619308826827</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.404450872451875</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.30105241542752</v>
+        <v>-14.38429327689521</v>
       </c>
       <c r="F61" t="n">
-        <v>2.534012501176989</v>
+        <v>2.595729616772885</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.222332299568753</v>
+        <v>-7.229663989160119</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-8.497872583691574</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.08419151115717</v>
+        <v>-14.17615184631745</v>
       </c>
       <c r="F62" t="n">
-        <v>2.484235565772746</v>
+        <v>2.54896391102224</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.178577823471704</v>
+        <v>-7.177098393250589</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-8.600838814908759</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.76433346043096</v>
+        <v>-13.85706624145891</v>
       </c>
       <c r="F63" t="n">
-        <v>2.412254084748936</v>
+        <v>2.476615845518861</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.370969213730868</v>
+        <v>-7.376926211523854</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-8.723860545365225</v>
       </c>
       <c r="E64" t="n">
-        <v>-13.57088159364162</v>
+        <v>-13.66881201889773</v>
       </c>
       <c r="F64" t="n">
-        <v>2.320817441702321</v>
+        <v>2.387719109223541</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.405742370078493</v>
+        <v>-7.396250450518242</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-8.860840268998762</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.37883060325634</v>
+        <v>-13.4788165200586</v>
       </c>
       <c r="F65" t="n">
-        <v>2.096232078755352</v>
+        <v>2.147815751951753</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.740578015255637</v>
+        <v>-7.741638491785817</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-9.010278318813475</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.16110560699843</v>
+        <v>-13.2629768154099</v>
       </c>
       <c r="F66" t="n">
-        <v>2.029461334262549</v>
+        <v>2.081280668910101</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.792868672805491</v>
+        <v>-7.786806936589772</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-9.175465824478524</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.9901855933997</v>
+        <v>-13.09307800143282</v>
       </c>
       <c r="F67" t="n">
-        <v>2.280466964344122</v>
+        <v>2.353024506692967</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.858801509916423</v>
+        <v>-7.863213615974085</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-9.34316040027409</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.93600964424063</v>
+        <v>-13.04265954318934</v>
       </c>
       <c r="F68" t="n">
-        <v>2.006287958232694</v>
+        <v>2.064784367329526</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.7709390655456</v>
+        <v>-7.764929698541247</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-9.518927408677655</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.79480915809262</v>
+        <v>-12.90223150290898</v>
       </c>
       <c r="F69" t="n">
-        <v>2.046900281647728</v>
+        <v>2.121159823365999</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.843287131048978</v>
+        <v>-7.837251579438942</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-9.685905950249836</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.76378040035773</v>
+        <v>-12.8783904194342</v>
       </c>
       <c r="F70" t="n">
-        <v>2.050670864866146</v>
+        <v>2.120452839012545</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.755751994249198</v>
+        <v>-7.746692120682723</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-9.843425527725078</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.46196354294742</v>
+        <v>-12.57302554795378</v>
       </c>
       <c r="F71" t="n">
-        <v>2.004350297412119</v>
+        <v>2.075677163293842</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.480172111733705</v>
+        <v>-7.457561704726045</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-9.984145633521056</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.39532372148303</v>
+        <v>-12.50529906535353</v>
       </c>
       <c r="F72" t="n">
-        <v>2.017704446310679</v>
+        <v>2.085077436734202</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.538445951682228</v>
+        <v>-7.521556881016402</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-10.09359309154221</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.1104744885556</v>
+        <v>-12.19382008844603</v>
       </c>
       <c r="F73" t="n">
-        <v>1.993509870659169</v>
+        <v>2.061118522533843</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.288317505891052</v>
+        <v>-7.257629148030046</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-10.17372158068458</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.31165081402156</v>
+        <v>-12.39558556753987</v>
       </c>
       <c r="F74" t="n">
-        <v>2.019825399371039</v>
+        <v>2.085313098185352</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.230816111810191</v>
+        <v>-7.205953828713753</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-10.20741199628238</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.44400090344857</v>
+        <v>-12.52831533374929</v>
       </c>
       <c r="F75" t="n">
-        <v>1.95179779380543</v>
+        <v>2.017311677225428</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.152576510028036</v>
+        <v>-7.133082071096706</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-10.19662807238662</v>
       </c>
       <c r="E76" t="n">
-        <v>-12.71103151220841</v>
+        <v>-12.78807971443197</v>
       </c>
       <c r="F76" t="n">
-        <v>1.93700349159428</v>
+        <v>1.998301653499241</v>
       </c>
       <c r="G76" t="n">
-        <v>-6.821930401760244</v>
+        <v>-6.788531937211001</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-10.13350510365345</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.29056229749742</v>
+        <v>-13.36420650098213</v>
       </c>
       <c r="F77" t="n">
-        <v>1.927891248816438</v>
+        <v>1.990943779302191</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.752816135058772</v>
+        <v>-6.729930789691435</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-10.01341869778513</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.786747482896</v>
+        <v>-13.85693531843049</v>
       </c>
       <c r="F78" t="n">
-        <v>1.976018554062623</v>
+        <v>2.041139668397369</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.752200796825211</v>
+        <v>-6.743350400104204</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-9.844104703039774</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.27601993239414</v>
+        <v>-14.34557933739223</v>
       </c>
       <c r="F79" t="n">
-        <v>2.022574782967801</v>
+        <v>2.086360482412691</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.647252897245935</v>
+        <v>-6.645655636299244</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-9.619643800623759</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.82546460575286</v>
+        <v>-14.89412064185487</v>
       </c>
       <c r="F80" t="n">
-        <v>1.922340112411546</v>
+        <v>1.977144492107012</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.304614239575122</v>
+        <v>-6.295200873831921</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-9.355601385328699</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.5988531192193</v>
+        <v>-15.66638321727692</v>
       </c>
       <c r="F81" t="n">
-        <v>2.017154569591327</v>
+        <v>2.075310578814274</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.240304848016564</v>
+        <v>-6.236167680318578</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-9.052857199064983</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.33060810964905</v>
+        <v>-16.39583396240653</v>
       </c>
       <c r="F82" t="n">
-        <v>1.995211870028594</v>
+        <v>2.047685819818232</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.141313946230273</v>
+        <v>-6.135749717522539</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-8.725233194093088</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.20635224673211</v>
+        <v>-17.27229817614588</v>
       </c>
       <c r="F83" t="n">
-        <v>1.973609570339746</v>
+        <v>2.028361580823844</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.849826915762083</v>
+        <v>-5.84100270364676</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-8.387287448856233</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.26191916334627</v>
+        <v>-18.32630710872188</v>
       </c>
       <c r="F84" t="n">
-        <v>1.993562239870536</v>
+        <v>2.041689545116721</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.730385836937017</v>
+        <v>-5.728631468356225</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-8.043932970981743</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.06250038981498</v>
+        <v>-19.12571002793484</v>
       </c>
       <c r="F85" t="n">
-        <v>2.016290477603773</v>
+        <v>2.067612304743339</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.585506413690476</v>
+        <v>-5.590206550410656</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.718582736831929</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.2044634128817</v>
+        <v>-20.27327655661781</v>
       </c>
       <c r="F86" t="n">
-        <v>2.004847804920104</v>
+        <v>2.055436463100534</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.251626506620778</v>
+        <v>-5.252529875516857</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.4144830417917</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.26971863359874</v>
+        <v>-21.33914711556841</v>
       </c>
       <c r="F87" t="n">
-        <v>1.848970847286514</v>
+        <v>1.881151727671476</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.900032713806224</v>
+        <v>-4.892740301123383</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.150797105376783</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.61383990484454</v>
+        <v>-22.68138309520501</v>
       </c>
       <c r="F88" t="n">
-        <v>1.938784044780755</v>
+        <v>1.974840246806868</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.661674248269759</v>
+        <v>-4.661857540509543</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-6.935583756029374</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.00349620537387</v>
+        <v>-24.06309236790941</v>
       </c>
       <c r="F89" t="n">
-        <v>1.797675204752631</v>
+        <v>1.840460850439392</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.281630881380135</v>
+        <v>-4.27765082131625</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-6.77333329097223</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.47458662957874</v>
+        <v>-25.53237605432212</v>
       </c>
       <c r="F90" t="n">
-        <v>1.590083650894222</v>
+        <v>1.626820652668106</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.159872464952083</v>
+        <v>-4.16326337138809</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.67819318961179</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.1190322357109</v>
+        <v>-27.17583973774115</v>
       </c>
       <c r="F91" t="n">
-        <v>1.389247725302144</v>
+        <v>1.422292697674661</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.06488780783536</v>
+        <v>-4.062505008718166</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-6.642629711763796</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.72362487199285</v>
+        <v>-28.77050840846907</v>
       </c>
       <c r="F92" t="n">
-        <v>1.270317246287905</v>
+        <v>1.299853481498839</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.797477522293105</v>
+        <v>-3.792895216298501</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-6.676007487407579</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.5770367237818</v>
+        <v>-30.6198354617714</v>
       </c>
       <c r="F93" t="n">
-        <v>1.133096820203774</v>
+        <v>1.161179809799276</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.793366539200803</v>
+        <v>-3.784057911880336</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-6.764753854406592</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.66097784400786</v>
+        <v>-32.697858861113</v>
       </c>
       <c r="F94" t="n">
-        <v>1.02164204611216</v>
+        <v>1.047643359555828</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.791756185951271</v>
+        <v>-3.778415129355552</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-6.905453254749216</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.69779976630655</v>
+        <v>-34.72901181628123</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6167494884289395</v>
+        <v>0.643392324711852</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.778912636863538</v>
+        <v>-3.763856488595553</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-7.093964443288831</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.67302240373493</v>
+        <v>-36.69979616304625</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3875294502759996</v>
+        <v>0.4194222999984443</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.988481128451047</v>
+        <v>-3.976815886619069</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-7.312215018819779</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.76599721292178</v>
+        <v>-38.78854215841523</v>
       </c>
       <c r="F97" t="n">
-        <v>0.01098172824511609</v>
+        <v>0.03780785676781281</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.994006080250255</v>
+        <v>-3.974040318416623</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-7.569931843236628</v>
       </c>
       <c r="E98" t="n">
-        <v>-41.00049981582769</v>
+        <v>-41.01169373475737</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.2038105921762418</v>
+        <v>-0.1720224808765309</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.194789636630966</v>
+        <v>-4.174234721169456</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.841429534047966</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.38384880974119</v>
+        <v>-43.39085319176152</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.1241832062928638</v>
+        <v>-0.09278786407840472</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.522817284330412</v>
+        <v>-4.503126460856457</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-8.146276733383095</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79659002353436</v>
+        <v>-45.79627580826616</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.3809232650191121</v>
+        <v>-0.3610229646996884</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.712027244999038</v>
+        <v>-4.686654362091772</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-8.450834468459709</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.19566287316077</v>
+        <v>-48.19494279650448</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.3256999316327115</v>
+        <v>-0.2974205574945832</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.996994308652048</v>
+        <v>-4.964171905427841</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.795827256399214</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.41907629555974</v>
+        <v>-50.41133874458028</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.4701734934911587</v>
+        <v>-0.4440019801105483</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.351520777303148</v>
+        <v>-5.322351126571782</v>
       </c>
     </row>
   </sheetData>
